--- a/outputs/Lincoln5.xlsx
+++ b/outputs/Lincoln5.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk
-Why: The page contains a variety of files and documents, including "README.md" and "CONTRIBUTING.md," which are commonly used to provide information about a project and guide users on how to contribute, including filing issues. Given Abi's motivation to accomplish their tasks and their comprehensive information processing style, they are likely to recognize that these files might contain the information they need. Additionally, since Abi is risk-averse and prefers predictable outcomes, they would look for familiar documents like README or CONTRIBUTING that generally contain guidance on project participation.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's preference for familiar methods and comprehensive information processing style, she might not immediately think of this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit information or guidance about the "Issues" button on the side. For someone like Abi, who has low confidence in performing unfamiliar computing tasks and prefers process-oriented learning, the lack of clear instructions or indications about what the "Issues" button does would make them hesitant to click it. There is no immediate or obvious connection between the "Issues" button and the task of filing an issue, which could deter Abi from taking this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide any explicit information or guidance about filing an issue. The "issue" button on the side is not prominently highlighted or explained, which might make Abi hesitant to click it due to her low computer self-efficacy and preference for comprehensive information. Additionally, without clear instructions or a step-by-step process, Abi might not feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: Upon landing on the issues page, Abi will see a list of existing issues but not necessarily any guidance on how to file a new issue. While the "New issue" button is present, it may not be immediately clear to Abi that this is the next step, especially since they favor comprehensive information gathering and process-oriented learning. Abi might expect some instructions or a help guide on this page, which is not provided. The presence of many existing issues and various labels could also be overwhelming and might not make it clear that clicking "New issue" is the correct next step to file a new issue.</t>
+Why: After clicking the "issue" button, Abi lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit instructions or guidance on how to file a new issue. Abi might not immediately know that she is on the right track or how to proceed further due to her preference for comprehensive information and step-by-step guidance. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without additional context or instructions.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: While the "New issue" button is prominently displayed, the page does not provide any explicit instructions or contextual information about what will happen when this button is clicked. Given Abi's need for comprehensive information and process-oriented learning, they might be hesitant to click the button without knowing what to expect. Additionally, Abi's low computer self-efficacy means they might not feel confident in clicking the button without reassurance or guidance, making it less likely for them to proceed with this action.</t>
+Why: The page lists existing issues but does not provide explicit instructions or guidance on how to file a new issue. While the "New issue" button is visible, it is not prominently highlighted or explained. Given Abi's preference for comprehensive information and step-by-step guidance, she might not immediately know that clicking the "New issue" button is the correct next step. Her low computer self-efficacy might also make her hesitant to click the button without clear instructions.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
-Why: Upon clicking the "New issue" button, Abi will be taken to a page that clearly indicates they are in the process of creating a new issue. The page has labeled fields (Title, Type, Description, Assignee, etc.) and instructions that guide the user through the process of filing an issue. This structured format aligns with Abi's preference for process-oriented learning and comprehensive information processing. Additionally, the presence of the "Create issue" button at the bottom clearly indicates the final step in this process. The page also includes links to description templates and contribution guidelines, providing further guidance and reassurance, which would help Abi feel confident that they are making progress towards their goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, description, and other relevant details. This clear layout and labeling will help Abi understand that she is on the right track and making progress toward her goal. The presence of a "Create issue" button at the bottom further confirms that she is in the right place to file an issue. The page provides all the necessary information and fields required to complete the task, aligning with Abi's preference for comprehensive information.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln5.xlsx
+++ b/outputs/Lincoln5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page primarily provides information about the repository's files and some general information about the project and its contributors. There is no explicit mention or clear guidance on how to file an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar computing tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of direct and clear instructions would make her hesitant to proceed.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it might lead to information about filing an issue. Given Abi's comprehensive information processing style, she would likely read through the options available on the side panel. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a direct and understandable action to take.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for clear and direct instructions. Given that Abi is motivated to file an issue and prefers comprehensive information, the presence of a clearly labeled "Issues" button would likely prompt her to click it as a logical next step in finding information about filing an issue. The page provides enough context for her to understand that clicking the "Issues" button is relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit information or instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear, step-by-step instructions to feel confident she is making progress. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit guidance, leading to uncertainty about whether she is on the right track.</t>
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi might not immediately recognize that she needs to click the "New issue" button to proceed, especially given her low confidence in unfamiliar tasks and preference for clear, step-by-step instructions. The page lacks direct guidance, which could make Abi uncertain about her next steps.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. Given Abi's comprehensive information processing style, she would likely read through the page and notice this button. The clear labeling of the button helps mitigate her low computer self-efficacy, as it provides a direct and understandable action to take. Therefore, Abi would know what to do at this step and feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. Given Abi's motivation to file an issue and her preference for clear, direct instructions, she is likely to recognize that clicking this button is the next logical step. The page is straightforward and does not overwhelm her with information, aligning with her comprehensive information processing style. Therefore, Abi will likely know what to do at this step and feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This clear layout and labeling provide Abi with the necessary information to know she is making progress toward her goal. The straightforward design and instructions align with her comprehensive information processing style and help mitigate her low computer self-efficacy by providing a clear path to follow.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, Abi lands on a page that clearly indicates she is in the right place to create a new issue. The page is straightforward, with fields for the title, type, and description of the issue, along with a "Create issue" button. This aligns with Abi's motivation to file an issue and her preference for clear, step-by-step instructions. The page provides all the necessary information and fields required to file an issue, making it evident to Abi that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln5.xlsx
+++ b/outputs/Lincoln5.xlsx
@@ -426,16 +426,16 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily provides information about the repository's files and some general information about the project and its contributors. There is no explicit mention or clear guidance on how to file an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar computing tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of direct and clear instructions would make her hesitant to proceed.</t>
+Why: The page primarily displays repository files and some general information about the project. There is no clear indication or direct information about filing an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of explicit guidance or instructions on this page would make it difficult for her to proceed confidently.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for clear and direct instructions. Given that Abi is motivated to file an issue and prefers comprehensive information, the presence of a clearly labeled "Issues" button would likely prompt her to click it as a logical next step in finding information about filing an issue. The page provides enough context for her to understand that clicking the "Issues" button is relevant to her goal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit information or instructions about filing an issue. The "Issues" button on the side is visible, but there is no clear indication that clicking it will lead to information about filing an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar tasks, she might not feel confident about what the "Issues" button will do. Additionally, Abi prefers process-oriented learning and might not be inclined to click on something without knowing its purpose, making it unlikely she will take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi might not immediately recognize that she needs to click the "New issue" button to proceed, especially given her low confidence in unfamiliar tasks and preference for clear, step-by-step instructions. The page lacks direct guidance, which could make Abi uncertain about her next steps.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi might not immediately recognize that she needs to click the "New issue" button to proceed, especially since there is no clear guidance or step-by-step process provided. Given her need for comprehensive information and low confidence in unfamiliar tasks, Abi might feel uncertain about what to do next and whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. Given Abi's motivation to file an issue and her preference for clear, direct instructions, she is likely to recognize that clicking this button is the next logical step. The page is straightforward and does not overwhelm her with information, aligning with her comprehensive information processing style. Therefore, Abi will likely know what to do at this step and feel confident in taking this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it visually distinct and likely to catch Abi's attention. The label "New issue" is clear and directly related to her goal of filing an issue. Given Abi's comprehensive information processing style, she would likely recognize that this button is the next step in her process. Additionally, the clear labeling helps mitigate her low confidence in unfamiliar tasks, as it provides a straightforward action to take.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi lands on a page that clearly indicates she is in the right place to create a new issue. The page is straightforward, with fields for the title, type, and description of the issue, along with a "Create issue" button. This aligns with Abi's motivation to file an issue and her preference for clear, step-by-step instructions. The page provides all the necessary information and fields required to file an issue, making it evident to Abi that she is making progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This layout is straightforward and directly related to her goal of filing an issue. The clear instructions and form fields provide the comprehensive information Abi needs to proceed confidently, aligning with her information processing style and mitigating her low confidence in unfamiliar tasks. Therefore, she will know she is making progress toward her goal and has the necessary information to continue.</t>
         </is>
       </c>
     </row>
